--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1731.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1731.xlsx
@@ -354,7 +354,7 @@
         <v>0.9195734249198926</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.871604258993839</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1731.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1731.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4467885103608301</v>
+        <v>0.9771034717559814</v>
       </c>
       <c r="B1">
-        <v>0.9195734249198926</v>
+        <v>1.567568898200989</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.871604258993839</v>
+        <v>1.767438530921936</v>
       </c>
       <c r="E1">
-        <v>1.842005427757098</v>
+        <v>1.057743430137634</v>
       </c>
     </row>
   </sheetData>
